--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="29">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -94,7 +94,16 @@
     <t>Onbroading process</t>
   </si>
   <si>
-    <t>orientation program</t>
+    <t>Orientation program</t>
+  </si>
+  <si>
+    <t>Activity Explaination and created "DUMMY" project for the practice.</t>
+  </si>
+  <si>
+    <t>Worked with "DUMMY" project as a practice.</t>
+  </si>
+  <si>
+    <t>worked with the "DUMMY" project and completed the task as a demo.</t>
   </si>
   <si>
     <t>February</t>
@@ -120,7 +129,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +155,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -673,148 +675,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2789,8 +2791,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2923,7 +2925,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="72" spans="1:6">
       <c r="A9" s="7">
         <v>17</v>
       </c>
@@ -2937,8 +2939,12 @@
         <f>C9+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7">
@@ -2968,7 +2974,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="43.2" spans="1:6">
       <c r="A12" s="7">
         <v>20</v>
       </c>
@@ -2982,10 +2988,14 @@
         <f>C12+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="57.6" spans="1:6">
       <c r="A13" s="7">
         <v>21</v>
       </c>
@@ -2996,8 +3006,12 @@
         <v>12</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7">
@@ -3165,7 +3179,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="2" t="s">
@@ -3623,7 +3637,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4126,7 +4140,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4360,7 +4374,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="30">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>worked with the "DUMMY" project and completed the task as a demo.</t>
+  </si>
+  <si>
+    <t>worked with the social app project and create the manage gender part(jira story creation)</t>
   </si>
   <si>
     <t>February</t>
@@ -2791,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3013,7 +3016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="86.4" spans="1:6">
       <c r="A14" s="7">
         <v>22</v>
       </c>
@@ -3027,8 +3030,12 @@
         <f>C14+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
@@ -3179,7 +3186,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="2" t="s">
@@ -3637,7 +3644,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4140,7 +4147,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4374,7 +4381,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="33">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>worked with the social app project and create the manage gender part(jira story creation)</t>
+  </si>
+  <si>
+    <t>created jira stories for two modules.</t>
+  </si>
+  <si>
+    <t>created jira stories</t>
+  </si>
+  <si>
+    <t>complete jira stories task.</t>
   </si>
   <si>
     <t>February</t>
@@ -2794,8 +2803,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3037,7 +3046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="28.8" spans="1:6">
       <c r="A15" s="7">
         <v>23</v>
       </c>
@@ -3051,8 +3060,12 @@
         <f>C15+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7">
@@ -3068,10 +3081,14 @@
         <f>C16+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:6">
       <c r="A17" s="7">
         <v>25</v>
       </c>
@@ -3082,8 +3099,12 @@
         <v>10</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7">
@@ -3186,7 +3207,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="2" t="s">
@@ -3644,7 +3665,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4147,7 +4168,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4381,7 +4402,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="34">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>complete jira stories task.</t>
+  </si>
+  <si>
+    <t>Mobile application</t>
   </si>
   <si>
     <t>February</t>
@@ -2803,8 +2806,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3120,7 +3123,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" ht="28.8" spans="1:6">
       <c r="A19" s="7">
         <v>27</v>
       </c>
@@ -3134,10 +3137,14 @@
         <f>C19+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:6">
       <c r="A20" s="7">
         <v>28</v>
       </c>
@@ -3151,10 +3158,14 @@
         <f>C20+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:6">
       <c r="A21" s="7">
         <v>29</v>
       </c>
@@ -3168,10 +3179,14 @@
         <f>C21+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:6">
       <c r="A22" s="7">
         <v>30</v>
       </c>
@@ -3185,8 +3200,12 @@
         <f>C22+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7">
@@ -3207,7 +3226,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="2" t="s">
@@ -3665,7 +3684,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4168,7 +4187,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4402,7 +4421,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="36">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin works </t>
+  </si>
+  <si>
+    <t>completed jira stories creation task</t>
   </si>
   <si>
     <t>March</t>
@@ -2806,8 +2812,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3264,7 +3270,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" ht="28.8" spans="1:6">
       <c r="A27" s="11">
         <v>3</v>
       </c>
@@ -3278,10 +3284,14 @@
         <f>C27+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="43.2" spans="1:6">
       <c r="A28" s="11">
         <v>4</v>
       </c>
@@ -3295,8 +3305,12 @@
         <f>C28+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11">
@@ -3684,7 +3698,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4187,7 +4201,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4421,7 +4435,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="39">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>completed jira stories creation task</t>
+  </si>
+  <si>
+    <t>Learning to convert the Requirements</t>
+  </si>
+  <si>
+    <t>Software requirements from business to technical and tring to do experiments</t>
+  </si>
+  <si>
+    <t>Did experiment using the chatgpt</t>
   </si>
   <si>
     <t>March</t>
@@ -2812,8 +2821,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3312,7 +3321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="72" spans="1:6">
       <c r="A29" s="11">
         <v>5</v>
       </c>
@@ -3326,10 +3335,14 @@
         <f>C29+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="43.2" spans="1:6">
       <c r="A30" s="11">
         <v>6</v>
       </c>
@@ -3343,8 +3356,12 @@
         <f>C30+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11">
@@ -3698,7 +3715,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4201,7 +4218,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4435,7 +4452,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>Did experiment using the chatgpt</t>
+  </si>
+  <si>
+    <t>Learning to convert the Requirements and had meeting with Deshukla.</t>
+  </si>
+  <si>
+    <t>Did experiment using the chatgpt and had meeting around  5 PM</t>
+  </si>
+  <si>
+    <t>Mobile appilcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New task assigned in the meeting and started the work and made some correction on the pervious works. </t>
   </si>
   <si>
     <t>March</t>
@@ -2821,8 +2833,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3363,7 +3375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="72" spans="1:6">
       <c r="A31" s="11">
         <v>7</v>
       </c>
@@ -3377,8 +3389,12 @@
         <f>C31+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11">
@@ -3408,7 +3424,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="86.4" spans="1:6">
       <c r="A34" s="11">
         <v>10</v>
       </c>
@@ -3422,8 +3438,12 @@
         <f>C34+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="11">
@@ -3715,7 +3735,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4218,7 +4238,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4452,7 +4472,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F99" s="6"/>
     </row>

--- a/Venakatesh's internship schedule.xlsx
+++ b/Venakatesh's internship schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="53">
   <si>
     <t>WORK SCHEDULE JAN 2025</t>
   </si>
@@ -149,6 +149,36 @@
   </si>
   <si>
     <t xml:space="preserve">New task assigned in the meeting and started the work and made some correction on the pervious works. </t>
+  </si>
+  <si>
+    <t>Created jira stories</t>
+  </si>
+  <si>
+    <t>Took off</t>
+  </si>
+  <si>
+    <t>Was went to  the hospital</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Went to the college for the project review</t>
+  </si>
+  <si>
+    <t>Worked on the user stories creation</t>
+  </si>
+  <si>
+    <t>Worked on the new set of requirement and learnt the process for creating the user stroies.</t>
+  </si>
+  <si>
+    <t>started working on the creating new set of Jira user stories.</t>
+  </si>
+  <si>
+    <t>started working on the creating new set of Jira user stories and clarified the  doubts with Deshukla</t>
+  </si>
+  <si>
+    <t>worked on the user stories creation and new Epic for mobile  app for  artist.</t>
   </si>
   <si>
     <t>March</t>
@@ -2833,8 +2863,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3445,7 +3475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" ht="28.8" spans="1:6">
       <c r="A35" s="11">
         <v>11</v>
       </c>
@@ -3456,10 +3486,14 @@
         <v>12</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="E35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="1:6">
       <c r="A36" s="11">
         <v>12</v>
       </c>
@@ -3473,10 +3507,14 @@
         <f>C36+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" ht="43.2" spans="1:6">
       <c r="A37" s="11">
         <v>13</v>
       </c>
@@ -3490,10 +3528,14 @@
         <f>C37+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" spans="1:6">
       <c r="A38" s="11">
         <v>14</v>
       </c>
@@ -3507,8 +3549,12 @@
         <f>C38+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="11">
@@ -3538,7 +3584,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" ht="28.8" spans="1:6">
       <c r="A41" s="11">
         <v>17</v>
       </c>
@@ -3552,10 +3598,14 @@
         <f>C41+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="E41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" ht="72" spans="1:6">
       <c r="A42" s="11">
         <v>18</v>
       </c>
@@ -3569,10 +3619,14 @@
         <f>C42+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="E42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" ht="72" spans="1:6">
       <c r="A43" s="11">
         <v>19</v>
       </c>
@@ -3586,10 +3640,14 @@
         <f>C43+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="E43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" ht="57.6" spans="1:6">
       <c r="A44" s="11">
         <v>20</v>
       </c>
@@ -3603,10 +3661,14 @@
         <f>C44+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="E44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" ht="57.6" spans="1:6">
       <c r="A45" s="11">
         <v>21</v>
       </c>
@@ -3620,8 +3682,12 @@
         <f>C45+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="11">
@@ -3651,7 +3717,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" ht="86.4" spans="1:6">
       <c r="A48" s="11">
         <v>24</v>
       </c>
@@ -3665,10 +3731,14 @@
         <f>C48+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="E48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" ht="43.2" spans="1:6">
       <c r="A49" s="11">
         <v>25</v>
       </c>
@@ -3680,9 +3750,11 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:6">
       <c r="A50" s="11">
         <v>26</v>
       </c>
@@ -3696,10 +3768,14 @@
         <f>C50+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" ht="57.6" spans="1:6">
       <c r="A51" s="11">
         <v>27</v>
       </c>
@@ -3713,8 +3789,12 @@
         <f>C51+TIME(9,0,0)</f>
         <v>0.791666666666667</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11">
@@ -3735,7 +3815,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
@@ -4238,7 +4318,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="2" t="s">
@@ -4472,7 +4552,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F99" s="6"/>
     </row>
